--- a/Report Data Siswa.xlsx
+++ b/Report Data Siswa.xlsx
@@ -1,165 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\praktek10\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECCBC21-C141-4209-B53E-1E248CC8BAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
-  <si>
-    <t>Nomor</t>
-  </si>
-  <si>
-    <t>Id Siswa</t>
-  </si>
-  <si>
-    <t>Jenis Pendaftaran</t>
-  </si>
-  <si>
-    <t>Tanggal Masuk Sekolah</t>
-  </si>
-  <si>
-    <t>NIS</t>
-  </si>
-  <si>
-    <t>Nama Lengkap</t>
-  </si>
-  <si>
-    <t>Jenis Kelamin</t>
-  </si>
-  <si>
-    <t>NISN</t>
-  </si>
-  <si>
-    <t>NIK</t>
-  </si>
-  <si>
-    <t>Tempat Lahir</t>
-  </si>
-  <si>
-    <t>Tanggal Lahir</t>
-  </si>
-  <si>
-    <t>Agama</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>Kelas</t>
   </si>
   <si>
     <t>Alamat</t>
   </si>
   <si>
-    <t>Nomor Telepon</t>
-  </si>
-  <si>
-    <t>Siswa baru</t>
-  </si>
-  <si>
-    <t>2022-02-01</t>
-  </si>
-  <si>
-    <t>Dianka Reka</t>
-  </si>
-  <si>
-    <t>Perempuan</t>
-  </si>
-  <si>
-    <t>0011223344</t>
-  </si>
-  <si>
-    <t>0012123141900101</t>
-  </si>
-  <si>
-    <t>Surabaya</t>
-  </si>
-  <si>
-    <t>2001-01-02</t>
-  </si>
-  <si>
-    <t>Islam</t>
-  </si>
-  <si>
-    <t>Rungkut, Surabaya</t>
-  </si>
-  <si>
-    <t>08211133244</t>
-  </si>
-  <si>
-    <t>Adinda Rama</t>
-  </si>
-  <si>
-    <t>Laki-laki</t>
-  </si>
-  <si>
-    <t>0011223355</t>
-  </si>
-  <si>
-    <t>0012123141900303</t>
-  </si>
-  <si>
-    <t>2000-11-23</t>
-  </si>
-  <si>
-    <t>08211131234</t>
-  </si>
-  <si>
-    <t>Larasati Chrishtine</t>
-  </si>
-  <si>
-    <t>0011223366</t>
-  </si>
-  <si>
-    <t>0012123141900404</t>
-  </si>
-  <si>
-    <t>2000-07-13</t>
-  </si>
-  <si>
-    <t>Katolik</t>
-  </si>
-  <si>
-    <t>Pindahan</t>
-  </si>
-  <si>
-    <t>2022-04-01</t>
-  </si>
-  <si>
-    <t>Tianka Putri</t>
-  </si>
-  <si>
-    <t>0011223377</t>
-  </si>
-  <si>
-    <t>0012123141900505</t>
-  </si>
-  <si>
-    <t>2000-11-22</t>
-  </si>
-  <si>
-    <t>Hindu</t>
-  </si>
-  <si>
-    <t>08211112342</t>
+    <t>Budi Susanto</t>
+  </si>
+  <si>
+    <t>1MM3</t>
+  </si>
+  <si>
+    <t>Sedati Gede</t>
+  </si>
+  <si>
+    <t>Dita Anggraini</t>
+  </si>
+  <si>
+    <t>1MM2</t>
+  </si>
+  <si>
+    <t>Rungkut</t>
+  </si>
+  <si>
+    <t>Riska Nur Aini</t>
+  </si>
+  <si>
+    <t>3MM1</t>
+  </si>
+  <si>
+    <t>Wonocolo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -174,13 +81,7 @@
     </fill>
   </fills>
   <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -194,29 +95,24 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -506,30 +402,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="6.08984375" customWidth="1"/>
-    <col min="2" max="2" width="7.08984375" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" customWidth="1"/>
-    <col min="4" max="4" width="14.08984375" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" customWidth="1"/>
-    <col min="6" max="6" width="17.26953125" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" customWidth="1"/>
-    <col min="8" max="8" width="12.08984375" customWidth="1"/>
-    <col min="9" max="9" width="19.26953125" customWidth="1"/>
-    <col min="11" max="11" width="11.1796875" customWidth="1"/>
-    <col min="13" max="13" width="18.26953125" customWidth="1"/>
-    <col min="14" max="14" width="17.54296875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,215 +427,62 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1809599001</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>2</v>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1809599002</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>3</v>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1809599003</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1809599006</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>